--- a/water countors.xlsx
+++ b/water countors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Desktop\Building Documents\BuildingDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>اردیبهشت</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>اختلاف اردیبهشت - خرداد</t>
+  </si>
+  <si>
+    <t>اردیبهشت 1403/01/15</t>
   </si>
 </sst>
 </file>
@@ -462,14 +465,14 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
@@ -487,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -510,6 +513,9 @@
       <c r="B3" s="5">
         <v>30008</v>
       </c>
+      <c r="C3">
+        <v>30092</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -518,6 +524,9 @@
       <c r="B4" s="2">
         <v>82495</v>
       </c>
+      <c r="C4">
+        <v>29180</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -526,6 +535,9 @@
       <c r="B5" s="2">
         <v>81957</v>
       </c>
+      <c r="C5">
+        <v>82545</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -534,6 +546,9 @@
       <c r="B6" s="2">
         <v>31157</v>
       </c>
+      <c r="C6">
+        <v>330763</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -542,6 +557,9 @@
       <c r="B7" s="2">
         <v>167506</v>
       </c>
+      <c r="C7">
+        <v>170410</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -550,6 +568,9 @@
       <c r="B8" s="2">
         <v>56308</v>
       </c>
+      <c r="C8">
+        <v>57410</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -558,6 +579,9 @@
       <c r="B9" s="2">
         <v>58915</v>
       </c>
+      <c r="C9">
+        <v>59350</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -566,6 +590,9 @@
       <c r="B10" s="2">
         <v>64616</v>
       </c>
+      <c r="C10">
+        <v>166450</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -574,6 +601,9 @@
       <c r="B11" s="2">
         <v>902500</v>
       </c>
+      <c r="C11">
+        <v>901614</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -582,6 +612,9 @@
       <c r="B12" s="2">
         <v>906116</v>
       </c>
+      <c r="C12">
+        <v>905724</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -589,6 +622,9 @@
       </c>
       <c r="B13" s="2">
         <v>936182</v>
+      </c>
+      <c r="C13">
+        <v>935724</v>
       </c>
     </row>
   </sheetData>
